--- a/Live-Aid-DVD-MP4-Tracklist.xlsx
+++ b/Live-Aid-DVD-MP4-Tracklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5340DBF3-9649-3449-948E-85F8AE17FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DCDAA-0C34-384D-AAD5-ECC231F9D4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Info" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="548">
   <si>
     <t>Live Aid (1985) - S01E09 - Oz for Africa - MTV Simulcast.mp4</t>
   </si>
@@ -1663,6 +1663,21 @@
   </si>
   <si>
     <t>1.9 billion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohemian Rhapsody </t>
+  </si>
+  <si>
+    <t>Is This The World We Created...?</t>
+  </si>
+  <si>
+    <t>Introduction of Queen by Griff Rhys-Jones + Mel Smith</t>
+  </si>
+  <si>
+    <t>Ay-Oh (Audience Call and Response)</t>
+  </si>
+  <si>
+    <t>Live Aid (1985) - S01E10 - Queen Restoration.mp4</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1688,7 @@
     <numFmt numFmtId="164" formatCode="hh:mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1761,7 +1776,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2107,7 +2122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B399661D-45FF-7B4D-A5FF-B3A9ADCB560D}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2451,9 +2466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D5DC73-961F-2E48-95BB-D173AA21F11A}">
   <dimension ref="A1:N818"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C698" sqref="C698:G755"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21988,24 +22003,265 @@
         <v>0</v>
       </c>
     </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>10</v>
+      </c>
+      <c r="B757" s="1">
+        <v>1</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E757" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F757" s="3">
+        <v>0</v>
+      </c>
+      <c r="G757" s="3">
+        <v>1.0416666666666667E-4</v>
+      </c>
+      <c r="H757" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>10</v>
+      </c>
+      <c r="B758" s="1">
+        <v>2</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E758" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F758" s="3">
+        <v>1.0416666666666667E-4</v>
+      </c>
+      <c r="G758" s="3">
+        <v>1.5740740740740741E-3</v>
+      </c>
+      <c r="H758" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A759" s="1">
+        <v>10</v>
+      </c>
+      <c r="B759" s="1">
+        <v>3</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E759" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F759" s="3">
+        <v>1.5740740740740741E-3</v>
+      </c>
+      <c r="G759" s="3">
+        <v>3.1249999999999997E-3</v>
+      </c>
+      <c r="H759" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>10</v>
+      </c>
+      <c r="B760" s="1">
+        <v>4</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E760" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F760" s="3">
+        <v>3.1249999999999997E-3</v>
+      </c>
+      <c r="G760" s="3">
+        <v>6.030092592592593E-3</v>
+      </c>
+      <c r="H760" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E761" s="3"/>
-      <c r="H761" s="3"/>
+      <c r="A761" s="1">
+        <v>10</v>
+      </c>
+      <c r="B761" s="1">
+        <v>5</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E761" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F761" s="3">
+        <v>6.030092592592593E-3</v>
+      </c>
+      <c r="G761" s="3">
+        <v>6.5277777777777782E-3</v>
+      </c>
+      <c r="H761" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E762" s="3"/>
+      <c r="A762" s="1">
+        <v>10</v>
+      </c>
+      <c r="B762" s="1">
+        <v>6</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E762" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F762" s="3">
+        <v>6.5277777777777782E-3</v>
+      </c>
+      <c r="G762" s="3">
+        <v>9.5370370370370366E-3</v>
+      </c>
+      <c r="H762" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E763" s="3"/>
+      <c r="A763" s="1">
+        <v>10</v>
+      </c>
+      <c r="B763" s="1">
+        <v>7</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E763" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F763" s="3">
+        <v>9.5370370370370366E-3</v>
+      </c>
+      <c r="G763" s="3">
+        <v>1.2395833333333335E-2</v>
+      </c>
+      <c r="H763" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E764" s="3"/>
+      <c r="A764" s="1">
+        <v>10</v>
+      </c>
+      <c r="B764" s="1">
+        <v>8</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E764" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F764" s="3">
+        <v>1.2395833333333335E-2</v>
+      </c>
+      <c r="G764" s="3">
+        <v>1.3263888888888889E-2</v>
+      </c>
+      <c r="H764" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E765" s="3"/>
+      <c r="A765" s="1">
+        <v>10</v>
+      </c>
+      <c r="B765" s="1">
+        <v>9</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E765" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F765" s="3">
+        <v>1.3263888888888889E-2</v>
+      </c>
+      <c r="G765" s="3">
+        <v>1.8761574074074073E-2</v>
+      </c>
+      <c r="H765" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E766" s="3"/>
+      <c r="A766" s="1">
+        <v>10</v>
+      </c>
+      <c r="B766" s="1">
+        <v>10</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E766" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F766" s="3">
+        <v>1.6516203703703703E-2</v>
+      </c>
+      <c r="G766" s="3">
+        <v>1.8761574074074073E-2</v>
+      </c>
+      <c r="H766" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E767" s="3"/>

--- a/Live-Aid-DVD-MP4-Tracklist.xlsx
+++ b/Live-Aid-DVD-MP4-Tracklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DCDAA-0C34-384D-AAD5-ECC231F9D4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE4B149-629E-5947-833C-797CC7E3E6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="549">
   <si>
     <t>Live Aid (1985) - S01E09 - Oz for Africa - MTV Simulcast.mp4</t>
   </si>
@@ -1678,6 +1678,9 @@
   </si>
   <si>
     <t>Live Aid (1985) - S01E10 - Queen Restoration.mp4</t>
+  </si>
+  <si>
+    <t>Stage Intro</t>
   </si>
 </sst>
 </file>
@@ -2468,7 +2471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22049,7 +22052,7 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="G758" s="3">
-        <v>1.5740740740740741E-3</v>
+        <v>1.2962962962962963E-3</v>
       </c>
       <c r="H758" s="2" t="s">
         <v>547</v>
@@ -22066,16 +22069,16 @@
         <v>197</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E759" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F759" s="3">
-        <v>1.5740740740740741E-3</v>
+        <v>1.2962962962962963E-3</v>
       </c>
       <c r="G759" s="3">
-        <v>3.1249999999999997E-3</v>
+        <v>1.5046296296296294E-3</v>
       </c>
       <c r="H759" s="2" t="s">
         <v>547</v>
@@ -22092,16 +22095,16 @@
         <v>197</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>401</v>
+        <v>543</v>
       </c>
       <c r="E760" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F760" s="3">
-        <v>3.1249999999999997E-3</v>
+        <v>1.5046296296296294E-3</v>
       </c>
       <c r="G760" s="3">
-        <v>6.030092592592593E-3</v>
+        <v>3.1365740740740742E-3</v>
       </c>
       <c r="H760" s="2" t="s">
         <v>547</v>
@@ -22118,16 +22121,16 @@
         <v>197</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>546</v>
+        <v>401</v>
       </c>
       <c r="E761" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F761" s="3">
-        <v>6.030092592592593E-3</v>
+        <v>3.1365740740740742E-3</v>
       </c>
       <c r="G761" s="3">
-        <v>6.5277777777777782E-3</v>
+        <v>5.9837962962962961E-3</v>
       </c>
       <c r="H761" s="2" t="s">
         <v>547</v>
@@ -22144,16 +22147,16 @@
         <v>197</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>403</v>
+        <v>546</v>
       </c>
       <c r="E762" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F762" s="3">
+        <v>5.9837962962962961E-3</v>
+      </c>
+      <c r="G762" s="3">
         <v>6.5277777777777782E-3</v>
-      </c>
-      <c r="G762" s="3">
-        <v>9.5370370370370366E-3</v>
       </c>
       <c r="H762" s="2" t="s">
         <v>547</v>
@@ -22170,16 +22173,16 @@
         <v>197</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>199</v>
+        <v>403</v>
       </c>
       <c r="E763" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F763" s="3">
-        <v>9.5370370370370366E-3</v>
+        <v>6.5277777777777782E-3</v>
       </c>
       <c r="G763" s="3">
-        <v>1.2395833333333335E-2</v>
+        <v>9.571759259259259E-3</v>
       </c>
       <c r="H763" s="2" t="s">
         <v>547</v>
@@ -22196,16 +22199,16 @@
         <v>197</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E764" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F764" s="3">
-        <v>1.2395833333333335E-2</v>
+        <v>9.571759259259259E-3</v>
       </c>
       <c r="G764" s="3">
-        <v>1.3263888888888889E-2</v>
+        <v>1.238425925925926E-2</v>
       </c>
       <c r="H764" s="2" t="s">
         <v>547</v>
@@ -22222,16 +22225,16 @@
         <v>197</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E765" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F765" s="3">
-        <v>1.3263888888888889E-2</v>
+        <v>1.238425925925926E-2</v>
       </c>
       <c r="G765" s="3">
-        <v>1.8761574074074073E-2</v>
+        <v>1.3287037037037036E-2</v>
       </c>
       <c r="H765" s="2" t="s">
         <v>547</v>
@@ -22245,29 +22248,75 @@
         <v>10</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>544</v>
+        <v>196</v>
       </c>
       <c r="E766" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F766" s="3">
-        <v>1.6516203703703703E-2</v>
+        <v>1.3287037037037036E-2</v>
       </c>
       <c r="G766" s="3">
-        <v>1.8761574074074073E-2</v>
+        <v>1.5925925925925927E-2</v>
       </c>
       <c r="H766" s="2" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E767" s="3"/>
+      <c r="A767" s="1">
+        <v>10</v>
+      </c>
+      <c r="B767" s="1">
+        <v>11</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E767" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F767" s="3">
+        <v>1.5925925925925927E-2</v>
+      </c>
+      <c r="G767" s="3">
+        <v>1.6423611111111111E-2</v>
+      </c>
+      <c r="H767" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E768" s="3"/>
+      <c r="A768" s="1">
+        <v>10</v>
+      </c>
+      <c r="B768" s="1">
+        <v>12</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E768" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F768" s="3">
+        <v>1.6423611111111111E-2</v>
+      </c>
+      <c r="G768" s="3">
+        <v>1.877314814814815E-2</v>
+      </c>
+      <c r="H768" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="769" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E769" s="3"/>
